--- a/test/resc/bad_1.xlsx
+++ b/test/resc/bad_1.xlsx
@@ -1,16 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalto\Documents\VS Code\project-timesaver\test\resc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC12E57-A5C8-4CF1-A78A-607F0865C510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="39690" yWindow="1410" windowWidth="16200" windowHeight="9480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pay" sheetId="1" r:id="rId1"/>
@@ -28,15 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="434">
-  <si>
-    <t>LEAVE BLANK LEAVE BLANK LEAVE BLANK</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
+  <si>
+    <t xml:space="preserve">LEAVE BLANK LEAVE BLANK LEAVE BLANK</t>
   </si>
   <si>
     <t>299</t>
   </si>
   <si>
-    <t>Capt.B. Mechling - F3</t>
+    <t xml:space="preserve">Capt.B. Mechling - F3</t>
   </si>
   <si>
     <t>$27.42</t>
@@ -48,7 +41,7 @@
     <t>203</t>
   </si>
   <si>
-    <t>Capt. J. King - F6</t>
+    <t xml:space="preserve">Capt. J. King - F6</t>
   </si>
   <si>
     <t>$26.11</t>
@@ -57,7 +50,7 @@
     <t>413</t>
   </si>
   <si>
-    <t>Lt. J. Ehrman - F9</t>
+    <t xml:space="preserve">Lt. J. Ehrman - F9</t>
   </si>
   <si>
     <t>$21.89</t>
@@ -66,13 +59,13 @@
     <t>513</t>
   </si>
   <si>
-    <t>K. Morphew</t>
+    <t xml:space="preserve">K. Morphew</t>
   </si>
   <si>
     <t>716</t>
   </si>
   <si>
-    <t>B. Speidel</t>
+    <t xml:space="preserve">B. Speidel</t>
   </si>
   <si>
     <t>$20.41</t>
@@ -81,7 +74,7 @@
     <t>317</t>
   </si>
   <si>
-    <t>D. Moser</t>
+    <t xml:space="preserve">D. Moser</t>
   </si>
   <si>
     <t>$18.66</t>
@@ -93,19 +86,19 @@
     <t>218</t>
   </si>
   <si>
-    <t>D. Fiscus</t>
+    <t xml:space="preserve">D. Fiscus</t>
   </si>
   <si>
     <t>418</t>
   </si>
   <si>
-    <t>S. Gehring</t>
+    <t xml:space="preserve">S. Gehring</t>
   </si>
   <si>
     <t>221</t>
   </si>
   <si>
-    <t>C. Harris</t>
+    <t xml:space="preserve">C. Harris</t>
   </si>
   <si>
     <t>$16.45</t>
@@ -114,25 +107,25 @@
     <t>1021</t>
   </si>
   <si>
-    <t>E. Duffey</t>
+    <t xml:space="preserve">E. Duffey</t>
   </si>
   <si>
     <t>111</t>
   </si>
   <si>
-    <t>R. Crist - F4</t>
+    <t xml:space="preserve">R. Crist - F4</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>Lt. J. Heckel - F10</t>
+    <t xml:space="preserve">Lt. J. Heckel - F10</t>
   </si>
   <si>
     <t>406</t>
   </si>
   <si>
-    <t>D. Gerwig</t>
+    <t xml:space="preserve">D. Gerwig</t>
   </si>
   <si>
     <t>$23.40</t>
@@ -141,13 +134,13 @@
     <t>409</t>
   </si>
   <si>
-    <t>S. Bennett</t>
+    <t xml:space="preserve">S. Bennett</t>
   </si>
   <si>
     <t>417</t>
   </si>
   <si>
-    <t>L. Eads</t>
+    <t xml:space="preserve">L. Eads</t>
   </si>
   <si>
     <t>B</t>
@@ -156,55 +149,55 @@
     <t>318</t>
   </si>
   <si>
-    <t>C. Rittmeyer</t>
+    <t xml:space="preserve">C. Rittmeyer</t>
   </si>
   <si>
     <t>220</t>
   </si>
   <si>
-    <t>C. Herndon</t>
+    <t xml:space="preserve">C. Herndon</t>
   </si>
   <si>
     <t>121</t>
   </si>
   <si>
-    <t>F. Leist</t>
+    <t xml:space="preserve">F. Leist</t>
   </si>
   <si>
     <t>321</t>
   </si>
   <si>
-    <t>S. Breide</t>
+    <t xml:space="preserve">S. Breide</t>
   </si>
   <si>
     <t>211</t>
   </si>
   <si>
-    <t>Capt. M. Harris - F5</t>
+    <t xml:space="preserve">Capt. M. Harris - F5</t>
   </si>
   <si>
     <t>210</t>
   </si>
   <si>
-    <t>Lt. J. Gerdom - F7</t>
+    <t xml:space="preserve">Lt. J. Gerdom - F7</t>
   </si>
   <si>
     <t>385</t>
   </si>
   <si>
-    <t>K. Thompson</t>
+    <t xml:space="preserve">K. Thompson</t>
   </si>
   <si>
     <t>314</t>
   </si>
   <si>
-    <t>Z. Gaskill</t>
+    <t xml:space="preserve">Z. Gaskill</t>
   </si>
   <si>
     <t>414</t>
   </si>
   <si>
-    <t>J. Wolf</t>
+    <t xml:space="preserve">J. Wolf</t>
   </si>
   <si>
     <t>C</t>
@@ -213,19 +206,19 @@
     <t>516</t>
   </si>
   <si>
-    <t>J. Moriarity</t>
+    <t xml:space="preserve">J. Moriarity</t>
   </si>
   <si>
     <t>421</t>
   </si>
   <si>
-    <t>M. Burkholder</t>
+    <t xml:space="preserve">M. Burkholder</t>
   </si>
   <si>
     <t>921</t>
   </si>
   <si>
-    <t>N. Bueter</t>
+    <t xml:space="preserve">N. Bueter</t>
   </si>
   <si>
     <t>000</t>
@@ -240,37 +233,37 @@
     <t>420</t>
   </si>
   <si>
-    <t>T. Markley</t>
+    <t xml:space="preserve">T. Markley</t>
   </si>
   <si>
     <t>$14.50</t>
   </si>
   <si>
-    <t>PART TIME</t>
+    <t xml:space="preserve">PART TIME</t>
   </si>
   <si>
     <t>521</t>
   </si>
   <si>
-    <t>A. Cossgrove</t>
+    <t xml:space="preserve">A. Cossgrove</t>
   </si>
   <si>
     <t>621</t>
   </si>
   <si>
-    <t>K. Gerber</t>
+    <t xml:space="preserve">K. Gerber</t>
   </si>
   <si>
     <t>821</t>
   </si>
   <si>
-    <t>B. Howe</t>
+    <t xml:space="preserve">B. Howe</t>
   </si>
   <si>
     <t>721</t>
   </si>
   <si>
-    <t>H. Komarck</t>
+    <t xml:space="preserve">H. Komarck</t>
   </si>
   <si>
     <t>Chief</t>
@@ -279,16 +272,16 @@
     <t>306</t>
   </si>
   <si>
-    <t>D. Craig F1</t>
-  </si>
-  <si>
-    <t>Deputy Chief</t>
+    <t xml:space="preserve">D. Craig F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deputy Chief</t>
   </si>
   <si>
     <t>394</t>
   </si>
   <si>
-    <t>C. Wolf F2</t>
+    <t xml:space="preserve">C. Wolf F2</t>
   </si>
   <si>
     <t>Engineer/FF</t>
@@ -297,7 +290,7 @@
     <t>195</t>
   </si>
   <si>
-    <t>T. Franklin - F12</t>
+    <t xml:space="preserve">T. Franklin - F12</t>
   </si>
   <si>
     <t>$27.48</t>
@@ -306,61 +299,61 @@
     <t>509</t>
   </si>
   <si>
-    <t>B. Ehrman - F13</t>
+    <t xml:space="preserve">B. Ehrman - F13</t>
   </si>
   <si>
     <t>213</t>
   </si>
   <si>
-    <t>R. Stahly - F14</t>
+    <t xml:space="preserve">R. Stahly - F14</t>
   </si>
   <si>
     <t>615</t>
   </si>
   <si>
-    <t>J. Platt - F15</t>
+    <t xml:space="preserve">J. Platt - F15</t>
   </si>
   <si>
     <t>215</t>
   </si>
   <si>
-    <t>D.Zoda - F16</t>
+    <t xml:space="preserve">D.Zoda - F16</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>T. Elzey - F17</t>
+    <t xml:space="preserve">T. Elzey - F17</t>
   </si>
   <si>
     <t>520</t>
   </si>
   <si>
-    <t>A. Hannie - F18</t>
-  </si>
-  <si>
-    <t>Kelly Engineer</t>
+    <t xml:space="preserve">A. Hannie - F18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelly Engineer</t>
   </si>
   <si>
     <t>190</t>
   </si>
   <si>
-    <t>K. Osborn</t>
+    <t xml:space="preserve">K. Osborn</t>
   </si>
   <si>
     <t>204</t>
   </si>
   <si>
-    <t>M. Moriarity</t>
-  </si>
-  <si>
-    <t>Bluffton Fire Department Fire Run Information</t>
-  </si>
-  <si>
-    <t>Highlight Blocks Needed</t>
-  </si>
-  <si>
-    <t>Incident No.</t>
+    <t xml:space="preserve">M. Moriarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluffton Fire Department Fire Run Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highlight Blocks Needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incident No.</t>
   </si>
   <si>
     <t>512</t>
@@ -396,7 +389,7 @@
     <t>Rescue</t>
   </si>
   <si>
-    <t>Weekend? (PUT 1 IN BLOCK)</t>
+    <t xml:space="preserve">Weekend? (PUT 1 IN BLOCK)</t>
   </si>
   <si>
     <t>yes</t>
@@ -453,7 +446,7 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Was station covered? (PUT 1 IN BLOCK)</t>
+    <t xml:space="preserve">Was station covered? (PUT 1 IN BLOCK)</t>
   </si>
   <si>
     <t>Hazmat</t>
@@ -465,37 +458,37 @@
     <t>Location:</t>
   </si>
   <si>
-    <t>928 W CHERRY ST</t>
+    <t xml:space="preserve">928 W CHERRY ST</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Run Time:</t>
-  </si>
-  <si>
-    <t>Sig 9</t>
+    <t xml:space="preserve">Run Time:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sig 9</t>
   </si>
   <si>
     <t>901</t>
   </si>
   <si>
-    <t>Apparatus Used:</t>
-  </si>
-  <si>
-    <t>Mutual Aid:</t>
-  </si>
-  <si>
-    <t>ENGINE 1</t>
-  </si>
-  <si>
-    <t>ENGINE 2</t>
-  </si>
-  <si>
-    <t>ENGINE 3</t>
-  </si>
-  <si>
-    <t>TOWER 1</t>
+    <t xml:space="preserve">Apparatus Used:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutual Aid:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGINE 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGINE 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGINE 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOWER 1</t>
   </si>
   <si>
     <t xml:space="preserve">Gave To: </t>
@@ -507,19 +500,19 @@
     <t>App</t>
   </si>
   <si>
-    <t>Received From:</t>
-  </si>
-  <si>
-    <t>TANKER 1</t>
-  </si>
-  <si>
-    <t>GR 1</t>
-  </si>
-  <si>
-    <t>COMMAND 1</t>
-  </si>
-  <si>
-    <t>COMMAND 2</t>
+    <t xml:space="preserve">Received From:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANKER 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMAND 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMAND 2</t>
   </si>
   <si>
     <t>Chester-</t>
@@ -534,16 +527,16 @@
     <t>90003</t>
   </si>
   <si>
-    <t>RESCUE 1</t>
-  </si>
-  <si>
-    <t>INF Boat 1</t>
-  </si>
-  <si>
-    <t>INF Boat 2</t>
-  </si>
-  <si>
-    <t>Jon Boat</t>
+    <t xml:space="preserve">RESCUE 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INF Boat 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INF Boat 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jon Boat</t>
   </si>
   <si>
     <t>Nottingham-</t>
@@ -558,13 +551,13 @@
     <t>90006</t>
   </si>
   <si>
-    <t>Hazmat Tr</t>
-  </si>
-  <si>
-    <t>Foam Tr</t>
-  </si>
-  <si>
-    <t>Gator 1 / Trailer</t>
+    <t xml:space="preserve">Hazmat Tr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foam Tr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gator 1 / Trailer</t>
   </si>
   <si>
     <t>Poneto-</t>
@@ -579,7 +572,7 @@
     <t>90008</t>
   </si>
   <si>
-    <t>Township Responded Too</t>
+    <t xml:space="preserve">Township Responded Too</t>
   </si>
   <si>
     <t>Monroe-</t>
@@ -612,7 +605,7 @@
     <t>35004</t>
   </si>
   <si>
-    <t>CITY LIMITS</t>
+    <t xml:space="preserve">CITY LIMITS</t>
   </si>
   <si>
     <t>Decatur-</t>
@@ -654,22 +647,22 @@
     <t>Pay</t>
   </si>
   <si>
-    <t>Total Hrs</t>
+    <t xml:space="preserve">Total Hrs</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Sub Hrs.</t>
+    <t xml:space="preserve">Sub Hrs.</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>Part Time</t>
-  </si>
-  <si>
-    <t>OD Hrs</t>
+    <t xml:space="preserve">Part Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD Hrs</t>
   </si>
   <si>
     <t>STA</t>
@@ -687,16 +680,16 @@
     <t>10/2/21</t>
   </si>
   <si>
-    <t>Engineer Hrs:</t>
-  </si>
-  <si>
-    <t>Amount $</t>
+    <t xml:space="preserve">Engineer Hrs:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount $</t>
   </si>
   <si>
     <t>$25.15</t>
   </si>
   <si>
-    <t>Firefighters Hrs:</t>
+    <t xml:space="preserve">Firefighters Hrs:</t>
   </si>
   <si>
     <t>3</t>
@@ -705,7 +698,7 @@
     <t>$69.92</t>
   </si>
   <si>
-    <t>Total Cost of Run $</t>
+    <t xml:space="preserve">Total Cost of Run $</t>
   </si>
   <si>
     <t>$95.07</t>
@@ -714,46 +707,46 @@
     <t xml:space="preserve"> Signature &amp; Title</t>
   </si>
   <si>
-    <t>GENERAL RUN</t>
-  </si>
-  <si>
-    <t>TO BE COMPLETED ON ALL INCIDENTS</t>
-  </si>
-  <si>
-    <t>WHAT TYPE OF LOCATION? (STREET ADDRESS, INTERSECTION, ETC</t>
-  </si>
-  <si>
-    <t>STREET ADDRESS</t>
-  </si>
-  <si>
-    <t>LOCATION ADDRESS (STREET, CITY, ETC)</t>
-  </si>
-  <si>
-    <t>WHAT TYPE OF INCIDENT? (FIRE, FALSE ALARM, ETC)</t>
-  </si>
-  <si>
-    <t>FIRE ALARM</t>
-  </si>
-  <si>
-    <t>WHAT WAS THE PRIMARY ACTION TAKEN? (EXTINGUISH, EXTRICATE, ASSIST EMS, ETC</t>
+    <t xml:space="preserve">GENERAL RUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO BE COMPLETED ON ALL INCIDENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT TYPE OF LOCATION? (STREET ADDRESS, INTERSECTION, ETC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STREET ADDRESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCATION ADDRESS (STREET, CITY, ETC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT TYPE OF INCIDENT? (FIRE, FALSE ALARM, ETC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRE ALARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT WAS THE PRIMARY ACTION TAKEN? (EXTINGUISH, EXTRICATE, ASSIST EMS, ETC</t>
   </si>
   <si>
     <t>INVESTIGATE</t>
   </si>
   <si>
-    <t>WHAT WAS THE PROPERTY USE? (RESIDENCE, SCHOOL, ETC)</t>
-  </si>
-  <si>
-    <t>WHO IS THE OWNER OF THE PROPERTY? (NAME, ADDRESS, AND PHONE NUMBER)</t>
-  </si>
-  <si>
-    <t>BCG CAPITAL</t>
+    <t xml:space="preserve">WHAT WAS THE PROPERTY USE? (RESIDENCE, SCHOOL, ETC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO IS THE OWNER OF THE PROPERTY? (NAME, ADDRESS, AND PHONE NUMBER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCG CAPITAL</t>
   </si>
   <si>
     <t>NARRATIVE</t>
   </si>
   <si>
-    <t>SMOKE DETECTOR -</t>
+    <t xml:space="preserve">SMOKE DETECTOR -</t>
   </si>
   <si>
     <t>PRESENT</t>
@@ -762,154 +755,154 @@
     <t>WORKING</t>
   </si>
   <si>
-    <t>REPLACED UNIT/BATTERY</t>
+    <t xml:space="preserve">REPLACED UNIT/BATTERY</t>
   </si>
   <si>
     <t xml:space="preserve">C.O. DETECTOR - </t>
   </si>
   <si>
-    <t>SIGNATURE PAGE</t>
-  </si>
-  <si>
-    <t>SCENE RELEASED TO:</t>
-  </si>
-  <si>
-    <t>PRINT NAME:</t>
+    <t xml:space="preserve">SIGNATURE PAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENE RELEASED TO:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRINT NAME:</t>
   </si>
   <si>
     <t>SIGNATURE:</t>
   </si>
   <si>
-    <t>INCIDENT COMMANDER:</t>
-  </si>
-  <si>
-    <t>DANE ZODA F16</t>
-  </si>
-  <si>
-    <t>211 26.11 1</t>
-  </si>
-  <si>
-    <t>210 23.4 1</t>
-  </si>
-  <si>
-    <t>414 20.41 1</t>
-  </si>
-  <si>
-    <t>195  1</t>
-  </si>
-  <si>
-    <t>Bluffton Fire Department Med Run Information</t>
+    <t xml:space="preserve">INCIDENT COMMANDER:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANE ZODA F16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211 26.11 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210 23.4 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">414 20.41 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195  1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluffton Fire Department Med Run Information</t>
   </si>
   <si>
     <t>1/0/00</t>
   </si>
   <si>
-    <t>MEDICAL RUN</t>
-  </si>
-  <si>
-    <t>STRUCTURE FIRES</t>
-  </si>
-  <si>
-    <t>TO BE COMPLETED ON ALL FIRES</t>
-  </si>
-  <si>
-    <t>WHAT IS THE NUMBER OF LIVING UNITS INVOLVED?</t>
-  </si>
-  <si>
-    <t>HOW MANY BUILDINGS INVOLVED?</t>
-  </si>
-  <si>
-    <t>WHERE DID THE FIRE START? (LIVING ROOM, BATHROOM, BEDROOM, ETC)</t>
-  </si>
-  <si>
-    <t>WHAT WAS THE HEAT SOURCE? (EQUIPMENT, HOT OBJECT, ETC)</t>
-  </si>
-  <si>
-    <t>WHAT ITEM WAS FIRST IGNITED? (FURNITURE, BED, ETC)</t>
-  </si>
-  <si>
-    <t>WHAT TYPE OF MATERIAL WAS FIRST IGNITED? (WOOD, GAS, ETC)</t>
-  </si>
-  <si>
-    <t>WHAT FACTORS CONTRIBUTED TO IGNITION? (MISUSE, FAILURE, ETC)</t>
-  </si>
-  <si>
-    <t>WHAT TYPE OF MATERIALS WERE PRESENT ON-SITE? (FOOD, WALLCOVERING, ETC)</t>
-  </si>
-  <si>
-    <t>WHAT HUMAN FACTORS CONTRIBUTED TO IGNITION? (ASLEEP, IMPAIRED, AGE, ETC)</t>
-  </si>
-  <si>
-    <t>WHAT EQUIPMENT WAS INVOLVED? (BRAND, MODEL, PORTABLE/STATIONARY, TYPE OF EQUIPMENT POWER)</t>
-  </si>
-  <si>
-    <t>WHAT SUPPRESSION FACTORS WERE INVOLVED? (DOORS OPEN, ROOF COLLAPSE, ETC)</t>
-  </si>
-  <si>
-    <t>WHAT MOBILE PROPERTY WAS INVOLVED? (MODEL, YEAR, TYPE, STATE, VIN, MAKE, LICENSE PLATE NUMBER)</t>
-  </si>
-  <si>
-    <t>TO BE COMPLETED ON STRUCTURE FIRES</t>
-  </si>
-  <si>
-    <t>WHAT WAS THE TYPE OF STRUCTURE?</t>
-  </si>
-  <si>
-    <t>WHAT WAS THE STATUS OF THE BUILDING? (OCCUPIED, VACANT)</t>
-  </si>
-  <si>
-    <t>NUMBER OF STORIES?</t>
-  </si>
-  <si>
-    <t>PROPERTY LOSS</t>
+    <t xml:space="preserve">MEDICAL RUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRUCTURE FIRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO BE COMPLETED ON ALL FIRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT IS THE NUMBER OF LIVING UNITS INVOLVED?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOW MANY BUILDINGS INVOLVED?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE DID THE FIRE START? (LIVING ROOM, BATHROOM, BEDROOM, ETC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT WAS THE HEAT SOURCE? (EQUIPMENT, HOT OBJECT, ETC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT ITEM WAS FIRST IGNITED? (FURNITURE, BED, ETC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT TYPE OF MATERIAL WAS FIRST IGNITED? (WOOD, GAS, ETC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT FACTORS CONTRIBUTED TO IGNITION? (MISUSE, FAILURE, ETC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT TYPE OF MATERIALS WERE PRESENT ON-SITE? (FOOD, WALLCOVERING, ETC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT HUMAN FACTORS CONTRIBUTED TO IGNITION? (ASLEEP, IMPAIRED, AGE, ETC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT EQUIPMENT WAS INVOLVED? (BRAND, MODEL, PORTABLE/STATIONARY, TYPE OF EQUIPMENT POWER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT SUPPRESSION FACTORS WERE INVOLVED? (DOORS OPEN, ROOF COLLAPSE, ETC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT MOBILE PROPERTY WAS INVOLVED? (MODEL, YEAR, TYPE, STATE, VIN, MAKE, LICENSE PLATE NUMBER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO BE COMPLETED ON STRUCTURE FIRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT WAS THE TYPE OF STRUCTURE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT WAS THE STATUS OF THE BUILDING? (OCCUPIED, VACANT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMBER OF STORIES?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPERTY LOSS</t>
   </si>
   <si>
     <t>CONTENTS</t>
   </si>
   <si>
-    <t>MAIN FLOOR SIZE? (SQ FT OR DEMINSIONS)</t>
-  </si>
-  <si>
-    <t>STORY OF ORIGIN?</t>
-  </si>
-  <si>
-    <t>DID THE FIRE SPREAD AND WHERE?</t>
-  </si>
-  <si>
-    <t>NUMBER OF STORIES AND HOW MUCH DAMAGE EACH?</t>
-  </si>
-  <si>
-    <t>ITEMS THAT CONTRIBUTED TO THE FIRE SPREAD?</t>
-  </si>
-  <si>
-    <t>MATERIAL THAT CONTRIBUTED TO THE FIRE SPREAD? (GAS, WIND, ETC)</t>
-  </si>
-  <si>
-    <t>SMOKE DETECTOR PRESENT?</t>
-  </si>
-  <si>
-    <t>TYPE, POWER SUPPLY, EFFECTIVENESS, REASON FOR FAILURE</t>
-  </si>
-  <si>
-    <t>IS THE BUILDING SPRINKLERED?</t>
-  </si>
-  <si>
-    <t>TYPE, DID IT OPERATE, NUMBER OF HEADS, OR REASON FOR FAILURE</t>
-  </si>
-  <si>
-    <t>CARBON MONOXIDE INCIDENTS</t>
-  </si>
-  <si>
-    <t>TO BE COMPLETED FOR CARBON MONOXIDE</t>
-  </si>
-  <si>
-    <t>TIME OF MEASUREMENT:</t>
-  </si>
-  <si>
-    <t>QUESTIONS TO ASK ALL OCCUPANTS:</t>
-  </si>
-  <si>
-    <t>Are any members of the household feeling ill?</t>
+    <t xml:space="preserve">MAIN FLOOR SIZE? (SQ FT OR DEMINSIONS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STORY OF ORIGIN?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DID THE FIRE SPREAD AND WHERE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMBER OF STORIES AND HOW MUCH DAMAGE EACH?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEMS THAT CONTRIBUTED TO THE FIRE SPREAD?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATERIAL THAT CONTRIBUTED TO THE FIRE SPREAD? (GAS, WIND, ETC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMOKE DETECTOR PRESENT?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE, POWER SUPPLY, EFFECTIVENESS, REASON FOR FAILURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS THE BUILDING SPRINKLERED?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE, DID IT OPERATE, NUMBER OF HEADS, OR REASON FOR FAILURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARBON MONOXIDE INCIDENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO BE COMPLETED FOR CARBON MONOXIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIME OF MEASUREMENT:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUESTIONS TO ASK ALL OCCUPANTS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are any members of the household feeling ill?</t>
   </si>
   <si>
     <t>YES</t>
@@ -930,43 +923,43 @@
     <t>Dizziness?</t>
   </si>
   <si>
-    <t>Shortness of breath?</t>
+    <t xml:space="preserve">Shortness of breath?</t>
   </si>
   <si>
     <t>Confusion?</t>
   </si>
   <si>
-    <t>A "YES" RESPONSE TO ANY OF THE ABOVE REQUIRES AN EVALUATION BY A PARAMEDIC!</t>
-  </si>
-  <si>
-    <t>Do you feel better when you are away from the house?</t>
-  </si>
-  <si>
-    <t>What appliances were on at the time of activation?</t>
-  </si>
-  <si>
-    <t>Since the detector's alarm went off, what have you done?</t>
-  </si>
-  <si>
-    <t>Shut-off carbon monoxide sources?</t>
-  </si>
-  <si>
-    <t>If yes, which ones?</t>
-  </si>
-  <si>
-    <t>Let in fresh air?</t>
-  </si>
-  <si>
-    <t>If yes, how and for how long?</t>
-  </si>
-  <si>
-    <t>PPM ACCEPTABLE (25 PPM OR LESS)</t>
+    <t xml:space="preserve">A "YES" RESPONSE TO ANY OF THE ABOVE REQUIRES AN EVALUATION BY A PARAMEDIC!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you feel better when you are away from the house?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What appliances were on at the time of activation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the detector's alarm went off, what have you done?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shut-off carbon monoxide sources?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes, which ones?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let in fresh air?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes, how and for how long?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPM ACCEPTABLE (25 PPM OR LESS)</t>
   </si>
   <si>
     <t>READING</t>
   </si>
   <si>
-    <t>UTILITIES NOTIFIED?</t>
+    <t xml:space="preserve">UTILITIES NOTIFIED?</t>
   </si>
   <si>
     <t>CHECKLIST</t>
@@ -978,19 +971,19 @@
     <t>PPM</t>
   </si>
   <si>
-    <t>Outside Reading</t>
-  </si>
-  <si>
-    <t>Upon Entering</t>
+    <t xml:space="preserve">Outside Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon Entering</t>
   </si>
   <si>
     <t xml:space="preserve">Chimney: </t>
   </si>
   <si>
-    <t>Clogged Flue</t>
-  </si>
-  <si>
-    <t>Blocked Opening</t>
+    <t xml:space="preserve">Clogged Flue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Opening</t>
   </si>
   <si>
     <t xml:space="preserve">Fireplace: </t>
@@ -1002,19 +995,19 @@
     <t>Wood</t>
   </si>
   <si>
-    <t>Gas Refrigerator:</t>
-  </si>
-  <si>
-    <t>Kitchen Stove:</t>
-  </si>
-  <si>
-    <t>Cook Top Vent:</t>
-  </si>
-  <si>
-    <t>Gas Dryer:</t>
-  </si>
-  <si>
-    <t>Water Heater-Chimney Pipe</t>
+    <t xml:space="preserve">Gas Refrigerator:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitchen Stove:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook Top Vent:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas Dryer:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Heater-Chimney Pipe</t>
   </si>
   <si>
     <t>Furnace:</t>
@@ -1026,25 +1019,25 @@
     <t>Flue</t>
   </si>
   <si>
-    <t>Chim. Pipe</t>
-  </si>
-  <si>
-    <t>Barbecue Grill:</t>
-  </si>
-  <si>
-    <t>In enclosed area?</t>
-  </si>
-  <si>
-    <t>Car Garage:</t>
-  </si>
-  <si>
-    <t>Car started/running?</t>
-  </si>
-  <si>
-    <t>Operating Fireplace:</t>
-  </si>
-  <si>
-    <t>CO Detector:</t>
+    <t xml:space="preserve">Chim. Pipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbecue Grill:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In enclosed area?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car Garage:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car started/running?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating Fireplace:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO Detector:</t>
   </si>
   <si>
     <t>Make:</t>
@@ -1053,170 +1046,170 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Serial #</t>
-  </si>
-  <si>
-    <t>Name of Firefighter Handling CO Monitor:</t>
-  </si>
-  <si>
-    <t>Monitor Used</t>
-  </si>
-  <si>
-    <t>Officer Completing Checklist:</t>
+    <t xml:space="preserve">Serial #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of Firefighter Handling CO Monitor:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Officer Completing Checklist:</t>
   </si>
   <si>
     <t>Comments:</t>
   </si>
   <si>
-    <t>CARBON MONOXIDE INCIDENT</t>
-  </si>
-  <si>
-    <t>WHAT WAS THE PRIMART ACTION TAKEN? (EXTINGUISH, EXTRICATE, ASSIST EMS, ETC</t>
-  </si>
-  <si>
-    <t>WILDLAND FIRES</t>
-  </si>
-  <si>
-    <t>TYPE OF AREA:</t>
-  </si>
-  <si>
-    <t>CAUSE OF FIRE:</t>
-  </si>
-  <si>
-    <t>FACTORS CONTRIBUTING TO FIRE:</t>
-  </si>
-  <si>
-    <t>HUMAN FACTORS CONTRIBUTING TO THE FIRE:</t>
-  </si>
-  <si>
-    <t>FIRE SUPPRESSION FACTORS:</t>
-  </si>
-  <si>
-    <t>HEAT SOURCE:</t>
-  </si>
-  <si>
-    <t>MOBILE PROPERTY TYPE:</t>
-  </si>
-  <si>
-    <t>EQUIPMENT INVOLVED:</t>
-  </si>
-  <si>
-    <t>NUMBER OF BUILDINGS IGNITED:</t>
+    <t xml:space="preserve">CARBON MONOXIDE INCIDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT WAS THE PRIMART ACTION TAKEN? (EXTINGUISH, EXTRICATE, ASSIST EMS, ETC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILDLAND FIRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE OF AREA:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAUSE OF FIRE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTORS CONTRIBUTING TO FIRE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUMAN FACTORS CONTRIBUTING TO THE FIRE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRE SUPPRESSION FACTORS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEAT SOURCE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOBILE PROPERTY TYPE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPMENT INVOLVED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMBER OF BUILDINGS IGNITED:</t>
   </si>
   <si>
     <t>THREATENED:</t>
   </si>
   <si>
-    <t>TOTAL NUMBER OF ACRES BURNED:</t>
-  </si>
-  <si>
-    <t>PRIMARY CROPS BURNED:</t>
-  </si>
-  <si>
-    <t>PERSON RESPONSIBLE FOR THE FIRE (MALE/FEMALE, AGE ACTIVITY OF PERSON):</t>
-  </si>
-  <si>
-    <t>DISTANCE TO THE RIGHT-OF-WAY:</t>
-  </si>
-  <si>
-    <t>TYPE OF RIGHT-OF-WAY:</t>
-  </si>
-  <si>
-    <t>WEATHER INFORMATION/TYPE OF WEATHER (CLEAR, OVERCAST, ETC):</t>
-  </si>
-  <si>
-    <t>WIND DIRECTION:</t>
-  </si>
-  <si>
-    <t>WIND SPEED:</t>
-  </si>
-  <si>
-    <t>AIR TEMPERATURE:</t>
-  </si>
-  <si>
-    <t>RELATIVE HUMIDITY:</t>
-  </si>
-  <si>
-    <t>HAZMAT INCIDENT</t>
-  </si>
-  <si>
-    <t>TO BE COMPLETED FOR ALL HAZ-MAT INCIDENTS</t>
-  </si>
-  <si>
-    <t>MATERIAL INVOLVED:</t>
-  </si>
-  <si>
-    <t>UN NUMBER:</t>
-  </si>
-  <si>
-    <t>HAZARD CLASS:</t>
-  </si>
-  <si>
-    <t>CAS NUMBER:</t>
-  </si>
-  <si>
-    <t>CHEMICAL NAME:</t>
-  </si>
-  <si>
-    <t>CONTAINER TYPE:</t>
-  </si>
-  <si>
-    <t>ESTIMATED CONTAINER CAPACITY:</t>
-  </si>
-  <si>
-    <t>ESTIMATED AMOUNT RELEASED:</t>
-  </si>
-  <si>
-    <t>PHYSICAL STATE WHEN RELEASED (GAS, LIQUID, ETC):</t>
-  </si>
-  <si>
-    <t>RELEASED INTO (AIR, WATER, ETC):</t>
-  </si>
-  <si>
-    <t>AREA EVACUATED:</t>
-  </si>
-  <si>
-    <t>ESTIMATED NUMBER OF PEOPLE EVACUATED:</t>
-  </si>
-  <si>
-    <t>ESTIMATED NUMBER OF BUILDINGS EVACUATED:</t>
-  </si>
-  <si>
-    <t>IF FIRE OR EXPLOSTION INVOLVED, WHICH OCCURRED FIRST?</t>
-  </si>
-  <si>
-    <t>(IGNITION, RELEASE, UNDETERMINED)</t>
-  </si>
-  <si>
-    <t>EQUIPMENT INVOLVED IN RELEASE (BRAND, MODEL, SERIAL #, YEAR):</t>
-  </si>
-  <si>
-    <t>MOBILE PROPERTY INVOLVED:</t>
-  </si>
-  <si>
-    <t>(TYPE, MAKE, MODEL, YEAR, LICENSE PLATE NUMBER, STATE,_x000D_
+    <t xml:space="preserve">TOTAL NUMBER OF ACRES BURNED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMARY CROPS BURNED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSON RESPONSIBLE FOR THE FIRE (MALE/FEMALE, AGE ACTIVITY OF PERSON):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTANCE TO THE RIGHT-OF-WAY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE OF RIGHT-OF-WAY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEATHER INFORMATION/TYPE OF WEATHER (CLEAR, OVERCAST, ETC):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIND DIRECTION:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIND SPEED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR TEMPERATURE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELATIVE HUMIDITY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAZMAT INCIDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO BE COMPLETED FOR ALL HAZ-MAT INCIDENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATERIAL INVOLVED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN NUMBER:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAZARD CLASS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAS NUMBER:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEMICAL NAME:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTAINER TYPE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTIMATED CONTAINER CAPACITY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTIMATED AMOUNT RELEASED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYSICAL STATE WHEN RELEASED (GAS, LIQUID, ETC):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASED INTO (AIR, WATER, ETC):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREA EVACUATED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTIMATED NUMBER OF PEOPLE EVACUATED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTIMATED NUMBER OF BUILDINGS EVACUATED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF FIRE OR EXPLOSTION INVOLVED, WHICH OCCURRED FIRST?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(IGNITION, RELEASE, UNDETERMINED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPMENT INVOLVED IN RELEASE (BRAND, MODEL, SERIAL #, YEAR):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOBILE PROPERTY INVOLVED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(TYPE, MAKE, MODEL, YEAR, LICENSE PLATE NUMBER, STATE,
 DOT OR ICC NUMBER, AND DISPOSITION)</t>
   </si>
   <si>
-    <t>NUMBER OF CIVILIAN CASUALTIES:</t>
-  </si>
-  <si>
-    <t>NUMBER OF CIVILIAN DEATHS:</t>
-  </si>
-  <si>
-    <t>NUMBER OF INJURIES:</t>
-  </si>
-  <si>
-    <t>TO BE COMPLETED ON ALL CIVILIAN FIRE CASUALTIES</t>
-  </si>
-  <si>
-    <t>(A PAGE FOR EACH INJURIED PERSON)</t>
-  </si>
-  <si>
-    <t>DATE OF INJURY:</t>
-  </si>
-  <si>
-    <t>TIME OF INJURY:</t>
+    <t xml:space="preserve">NUMBER OF CIVILIAN CASUALTIES:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMBER OF CIVILIAN DEATHS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMBER OF INJURIES:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO BE COMPLETED ON ALL CIVILIAN FIRE CASUALTIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A PAGE FOR EACH INJURIED PERSON)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE OF INJURY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIME OF INJURY:</t>
   </si>
   <si>
     <t>NAME:</t>
@@ -1228,46 +1221,46 @@
     <t>RACE:</t>
   </si>
   <si>
-    <t>AFFILIATION (EMS, POLICE, OTHER):</t>
-  </si>
-  <si>
-    <t>INJURY SEVERITY:</t>
-  </si>
-  <si>
-    <t>CAUSE OF INJURY:</t>
-  </si>
-  <si>
-    <t>HUMAN FACTORS CONTRIBUTING TO INJURY:</t>
-  </si>
-  <si>
-    <t>FACTORS CONTRIBUTING TO INJURY:</t>
-  </si>
-  <si>
-    <t>ACTIVITY WHEN INJURED:</t>
-  </si>
-  <si>
-    <t>SPECIFIC LOCATION AT TIME OF INJURY:</t>
-  </si>
-  <si>
-    <t>GENERAL LOCATION AT TIME OF INJURY:</t>
-  </si>
-  <si>
-    <t>PRIMARY APPARENT SYMPTOMS:</t>
-  </si>
-  <si>
-    <t>PRIMARY AREA OF BODY INJURED:</t>
-  </si>
-  <si>
-    <t>TRANSPORTED TO EMERGENCY FACILITY?</t>
+    <t xml:space="preserve">AFFILIATION (EMS, POLICE, OTHER):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INJURY SEVERITY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAUSE OF INJURY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUMAN FACTORS CONTRIBUTING TO INJURY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTORS CONTRIBUTING TO INJURY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITY WHEN INJURED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPECIFIC LOCATION AT TIME OF INJURY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERAL LOCATION AT TIME OF INJURY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMARY APPARENT SYMPTOMS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMARY AREA OF BODY INJURED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSPORTED TO EMERGENCY FACILITY?</t>
   </si>
   <si>
     <t>WHERE?</t>
   </si>
   <si>
-    <t>CIVILIAN FIRE CASUALITIES</t>
-  </si>
-  <si>
-    <t>TO BE COMPLETED ON ALL FIRE SERVICE CASUALTIES</t>
+    <t xml:space="preserve">CIVILIAN FIRE CASUALITIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO BE COMPLETED ON ALL FIRE SERVICE CASUALTIES</t>
   </si>
   <si>
     <t>ID#:</t>
@@ -1291,58 +1284,57 @@
     <t>VOLUNTEER</t>
   </si>
   <si>
-    <t>USUAL ASSIGNMENT:</t>
-  </si>
-  <si>
-    <t>PHYSICAL CONDITION PRIOR TO INJURY:</t>
-  </si>
-  <si>
-    <t>SEVERITY OF INJURY:</t>
-  </si>
-  <si>
-    <t>TAKEN TO:</t>
-  </si>
-  <si>
-    <t>ACTIVITY AT TIME OF INJURY:</t>
-  </si>
-  <si>
-    <t>PRIMARY APPARENT INJURY:</t>
-  </si>
-  <si>
-    <t>PRIMARY APPARENT SYMPTOM:</t>
-  </si>
-  <si>
-    <t>CAUSE OF FIREFIGHTER INJURY:</t>
-  </si>
-  <si>
-    <t>FACTORS CONTRIBUTING TO THE INJURY:</t>
-  </si>
-  <si>
-    <t>OBJECT INVOLVED IN INJURY:</t>
-  </si>
-  <si>
-    <t>WHERE INJURY OCCURRED:</t>
-  </si>
-  <si>
-    <t>SPECIFIC LOCATION:</t>
-  </si>
-  <si>
-    <t>PROTECTIVE EQUIPMENT WORN:</t>
-  </si>
-  <si>
-    <t>FIRE SERVICE CASUALITIES</t>
+    <t xml:space="preserve">USUAL ASSIGNMENT:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYSICAL CONDITION PRIOR TO INJURY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEVERITY OF INJURY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAKEN TO:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITY AT TIME OF INJURY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMARY APPARENT INJURY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMARY APPARENT SYMPTOM:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAUSE OF FIREFIGHTER INJURY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTORS CONTRIBUTING TO THE INJURY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECT INVOLVED IN INJURY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE INJURY OCCURRED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPECIFIC LOCATION:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTECTIVE EQUIPMENT WORN:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRE SERVICE CASUALITIES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
-      <sz val="12"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="12.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1364,10 +1356,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1378,14 +1370,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -1431,6 +1420,289 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
@@ -1464,8 +1736,8 @@
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
@@ -1596,17 +1868,6 @@
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1701,24 +1962,22 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1732,7 +1991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1743,7 +2002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1754,7 +2013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1765,7 +2024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1776,7 +2035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1790,7 +2049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1801,7 +2060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1812,7 +2071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1823,7 +2082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1834,7 +2093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1845,7 +2104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1856,7 +2115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1867,7 +2126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1878,7 +2137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1892,7 +2151,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1903,7 +2162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1914,7 +2173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1925,7 +2184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1936,7 +2195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1947,7 +2206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1958,7 +2217,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1969,7 +2228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1980,7 +2239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1994,7 +2253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2005,7 +2264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2016,7 +2275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2027,7 +2286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2038,7 +2297,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -2052,7 +2311,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2063,7 +2322,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -2074,7 +2333,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -2085,7 +2344,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2096,12 +2355,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="B40" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2109,12 +2368,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="B43" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -2122,12 +2381,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="B46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -2138,7 +2397,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2149,7 +2408,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -2160,7 +2419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -2171,7 +2430,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -2182,7 +2441,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -2193,7 +2452,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -2204,12 +2463,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="B54" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>104</v>
       </c>
@@ -2220,7 +2479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>106</v>
       </c>
@@ -2232,34 +2491,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:E56" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R237"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="O2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -2303,7 +2558,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>122</v>
       </c>
@@ -2323,7 +2578,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -2364,7 +2619,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -2384,7 +2639,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -2395,7 +2650,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -2409,7 +2664,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -2417,7 +2672,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -2449,7 +2704,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -2475,7 +2730,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -2501,7 +2756,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -2524,7 +2779,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>183</v>
       </c>
@@ -2541,7 +2796,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -2561,7 +2816,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -2584,7 +2839,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -2592,7 +2847,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -2600,7 +2855,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -2632,7 +2887,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2649,7 +2904,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2669,7 +2924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2686,7 +2941,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2703,7 +2958,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2720,7 +2975,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2737,7 +2992,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2754,7 +3009,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2771,7 +3026,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2788,7 +3043,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2805,7 +3060,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2828,7 +3083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2845,7 +3100,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2862,7 +3117,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2879,7 +3134,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2896,7 +3151,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2913,7 +3168,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2930,7 +3185,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2947,7 +3202,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2964,7 +3219,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -2987,7 +3242,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -3007,7 +3262,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -3024,7 +3279,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -3041,7 +3296,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3061,7 +3316,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -3078,7 +3333,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -3095,7 +3350,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -3112,7 +3367,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -3129,7 +3384,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -3149,7 +3404,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -3166,7 +3421,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -3183,7 +3438,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -3200,7 +3455,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -3217,7 +3472,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -3237,7 +3492,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -3260,7 +3515,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -3277,7 +3532,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -3294,7 +3549,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -3320,7 +3575,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -3340,7 +3595,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -3360,7 +3615,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -3380,7 +3635,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -3406,7 +3661,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>99</v>
       </c>
@@ -3426,7 +3681,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -3446,7 +3701,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="D65" t="s">
         <v>202</v>
       </c>
@@ -3478,12 +3733,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="E66" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -3503,7 +3758,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="B69" t="s">
         <v>7</v>
       </c>
@@ -3511,7 +3766,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="B70" t="s">
         <v>35</v>
       </c>
@@ -3531,7 +3786,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="B71" t="s">
         <v>10</v>
       </c>
@@ -3539,7 +3794,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="B72" t="s">
         <v>15</v>
       </c>
@@ -3559,7 +3814,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="B73" t="s">
         <v>18</v>
       </c>
@@ -3567,7 +3822,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="B74" t="s">
         <v>26</v>
       </c>
@@ -3581,82 +3836,82 @@
         <v>226</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="G78" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" t="s">
         <v>241</v>
       </c>
@@ -3670,7 +3925,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" t="s">
         <v>245</v>
       </c>
@@ -3684,32 +3939,32 @@
         <v>244</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="A159" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="A161" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="A166" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="A175" t="s">
         <v>250</v>
       </c>
@@ -3717,12 +3972,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="A178" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="A182" t="s">
         <v>113</v>
       </c>
@@ -3730,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183">
       <c r="A183" t="s">
         <v>113</v>
       </c>
@@ -3738,7 +3993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184">
       <c r="A184" t="s">
         <v>113</v>
       </c>
@@ -3746,7 +4001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185">
       <c r="A185" t="s">
         <v>113</v>
       </c>
@@ -3754,7 +4009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186">
       <c r="A186" t="s">
         <v>113</v>
       </c>
@@ -3762,7 +4017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187">
       <c r="A187" t="s">
         <v>113</v>
       </c>
@@ -3770,7 +4025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188">
       <c r="A188" t="s">
         <v>113</v>
       </c>
@@ -3778,7 +4033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189">
       <c r="A189" t="s">
         <v>113</v>
       </c>
@@ -3786,7 +4041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190">
       <c r="A190" t="s">
         <v>113</v>
       </c>
@@ -3794,7 +4049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191">
       <c r="A191" t="s">
         <v>113</v>
       </c>
@@ -3802,7 +4057,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192">
       <c r="A192" t="s">
         <v>113</v>
       </c>
@@ -3810,7 +4065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="A193" t="s">
         <v>113</v>
       </c>
@@ -3818,7 +4073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194">
       <c r="A194" t="s">
         <v>113</v>
       </c>
@@ -3826,7 +4081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="A195" t="s">
         <v>113</v>
       </c>
@@ -3834,7 +4089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196">
       <c r="A196" t="s">
         <v>113</v>
       </c>
@@ -3842,7 +4097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197">
       <c r="A197" t="s">
         <v>113</v>
       </c>
@@ -3850,7 +4105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198">
       <c r="A198" t="s">
         <v>113</v>
       </c>
@@ -3858,7 +4113,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199">
       <c r="A199" t="s">
         <v>113</v>
       </c>
@@ -3866,7 +4121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200">
       <c r="A200" t="s">
         <v>113</v>
       </c>
@@ -3874,7 +4129,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201">
       <c r="A201" t="s">
         <v>252</v>
       </c>
@@ -3882,7 +4137,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202">
       <c r="A202" t="s">
         <v>253</v>
       </c>
@@ -3890,7 +4145,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203">
       <c r="A203" t="s">
         <v>113</v>
       </c>
@@ -3898,7 +4153,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204">
       <c r="A204" t="s">
         <v>113</v>
       </c>
@@ -3906,7 +4161,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205">
       <c r="A205" t="s">
         <v>254</v>
       </c>
@@ -3914,7 +4169,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206">
       <c r="A206" t="s">
         <v>113</v>
       </c>
@@ -3922,7 +4177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207">
       <c r="A207" t="s">
         <v>113</v>
       </c>
@@ -3930,7 +4185,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208">
       <c r="A208" t="s">
         <v>113</v>
       </c>
@@ -3938,7 +4193,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209">
       <c r="A209" t="s">
         <v>113</v>
       </c>
@@ -3946,7 +4201,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210">
       <c r="A210" t="s">
         <v>113</v>
       </c>
@@ -3954,7 +4209,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211">
       <c r="A211" t="s">
         <v>113</v>
       </c>
@@ -3962,7 +4217,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212">
       <c r="A212" t="s">
         <v>113</v>
       </c>
@@ -3970,7 +4225,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213">
       <c r="A213" t="s">
         <v>113</v>
       </c>
@@ -3978,7 +4233,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214">
       <c r="A214" t="s">
         <v>113</v>
       </c>
@@ -3986,7 +4241,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215">
       <c r="A215" t="s">
         <v>113</v>
       </c>
@@ -3994,7 +4249,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216">
       <c r="A216" t="s">
         <v>113</v>
       </c>
@@ -4002,7 +4257,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217">
       <c r="A217" t="s">
         <v>113</v>
       </c>
@@ -4010,7 +4265,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218">
       <c r="A218" t="s">
         <v>113</v>
       </c>
@@ -4018,7 +4273,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219">
       <c r="A219" t="s">
         <v>255</v>
       </c>
@@ -4026,7 +4281,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220">
       <c r="A220" t="s">
         <v>113</v>
       </c>
@@ -4034,7 +4289,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221">
       <c r="A221" t="s">
         <v>113</v>
       </c>
@@ -4042,7 +4297,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222">
       <c r="A222" t="s">
         <v>113</v>
       </c>
@@ -4050,7 +4305,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223">
       <c r="A223" t="s">
         <v>113</v>
       </c>
@@ -4058,7 +4313,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224">
       <c r="A224" t="s">
         <v>113</v>
       </c>
@@ -4066,7 +4321,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225">
       <c r="A225" t="s">
         <v>113</v>
       </c>
@@ -4074,78 +4329,74 @@
         <v>101</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227">
       <c r="A227" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229">
       <c r="A229" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230">
       <c r="A230" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231">
       <c r="A231" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232">
       <c r="A232" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233">
       <c r="A233" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234">
       <c r="A234" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235">
       <c r="A235" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237">
       <c r="A237" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:R2 A4:R237 A3 C3:R3" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R157"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="O2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4171,7 +4422,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>122</v>
       </c>
@@ -4188,7 +4439,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -4214,7 +4465,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -4231,7 +4482,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -4239,7 +4490,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -4250,7 +4501,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -4258,7 +4509,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -4290,7 +4541,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -4316,7 +4567,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -4342,7 +4593,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -4365,7 +4616,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>183</v>
       </c>
@@ -4382,7 +4633,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -4402,7 +4653,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -4422,7 +4673,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -4430,7 +4681,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -4438,7 +4689,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -4470,7 +4721,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -4487,7 +4738,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -4507,7 +4758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -4524,7 +4775,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -4541,7 +4792,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -4558,7 +4809,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -4575,7 +4826,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -4592,7 +4843,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -4609,7 +4860,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -4626,7 +4877,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -4643,7 +4894,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4666,7 +4917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4683,7 +4934,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -4700,7 +4951,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -4717,7 +4968,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -4734,7 +4985,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -4751,7 +5002,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -4768,7 +5019,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -4785,7 +5036,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -4802,7 +5053,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -4822,7 +5073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -4839,7 +5090,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -4856,7 +5107,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -4873,7 +5124,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -4890,7 +5141,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -4907,7 +5158,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -4924,7 +5175,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -4941,7 +5192,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -4958,7 +5209,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -4978,7 +5229,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -4995,7 +5246,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -5012,7 +5263,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -5029,7 +5280,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -5046,7 +5297,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -5066,7 +5317,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -5089,7 +5340,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -5106,7 +5357,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -5123,7 +5374,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -5143,7 +5394,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -5163,7 +5414,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -5183,7 +5434,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -5203,7 +5454,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -5223,7 +5474,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>99</v>
       </c>
@@ -5243,7 +5494,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -5263,7 +5514,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="D65" t="s">
         <v>202</v>
       </c>
@@ -5295,12 +5546,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="E66" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -5320,7 +5571,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="B69" t="s">
         <v>7</v>
       </c>
@@ -5328,7 +5579,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="B70" t="s">
         <v>35</v>
       </c>
@@ -5348,7 +5599,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="B71" t="s">
         <v>10</v>
       </c>
@@ -5356,7 +5607,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="B72" t="s">
         <v>15</v>
       </c>
@@ -5376,7 +5627,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="B73" t="s">
         <v>18</v>
       </c>
@@ -5384,7 +5635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="B74" t="s">
         <v>26</v>
       </c>
@@ -5398,93 +5649,89 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="G78" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:R157" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R286"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="O2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -5510,7 +5757,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>122</v>
       </c>
@@ -5527,7 +5774,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -5553,7 +5800,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -5570,7 +5817,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -5578,7 +5825,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -5589,7 +5836,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -5597,7 +5844,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -5629,7 +5876,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -5655,7 +5902,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -5681,7 +5928,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -5704,7 +5951,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>183</v>
       </c>
@@ -5721,7 +5968,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -5741,7 +5988,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -5761,7 +6008,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -5769,7 +6016,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -5777,7 +6024,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -5809,7 +6056,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -5826,7 +6073,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -5846,7 +6093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -5863,7 +6110,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -5880,7 +6127,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -5897,7 +6144,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -5914,7 +6161,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -5931,7 +6178,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -5948,7 +6195,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -5965,7 +6212,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -5982,7 +6229,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -6005,7 +6252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6022,7 +6269,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -6039,7 +6286,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -6056,7 +6303,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -6073,7 +6320,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -6090,7 +6337,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -6107,7 +6354,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -6124,7 +6371,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -6141,7 +6388,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -6161,7 +6408,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -6178,7 +6425,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -6195,7 +6442,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -6212,7 +6459,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -6229,7 +6476,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -6246,7 +6493,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -6263,7 +6510,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -6280,7 +6527,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -6297,7 +6544,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -6317,7 +6564,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -6334,7 +6581,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -6351,7 +6598,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -6368,7 +6615,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -6385,7 +6632,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -6405,7 +6652,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -6428,7 +6675,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -6445,7 +6692,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -6462,7 +6709,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -6482,7 +6729,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -6502,7 +6749,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -6522,7 +6769,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -6542,7 +6789,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -6562,7 +6809,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>99</v>
       </c>
@@ -6582,7 +6829,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -6602,7 +6849,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="D65" t="s">
         <v>202</v>
       </c>
@@ -6634,12 +6881,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="E66" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -6659,7 +6906,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="B69" t="s">
         <v>7</v>
       </c>
@@ -6667,7 +6914,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="B70" t="s">
         <v>35</v>
       </c>
@@ -6687,7 +6934,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="B71" t="s">
         <v>10</v>
       </c>
@@ -6695,7 +6942,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="B72" t="s">
         <v>15</v>
       </c>
@@ -6715,7 +6962,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="B73" t="s">
         <v>18</v>
       </c>
@@ -6723,7 +6970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="B74" t="s">
         <v>26</v>
       </c>
@@ -6737,62 +6984,62 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="G78" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" t="s">
         <v>241</v>
       </c>
@@ -6806,7 +7053,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" t="s">
         <v>245</v>
       </c>
@@ -6820,92 +7067,92 @@
         <v>244</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="A160" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="A166" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169">
       <c r="A169" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172">
       <c r="A172" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="A173" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="A174" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="A175" t="s">
         <v>276</v>
       </c>
@@ -6916,123 +7163,119 @@
         <v>278</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176">
       <c r="A176" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177">
       <c r="A177" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="A178" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="A181" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184">
       <c r="A184" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187">
       <c r="A187" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191">
       <c r="A191" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="A193" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197">
       <c r="A197" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199">
       <c r="A199" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207">
       <c r="A207" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208">
       <c r="A208" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210">
       <c r="A210" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212">
       <c r="A212" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215">
       <c r="A215" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224">
       <c r="A224" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227">
       <c r="A227" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286">
       <c r="A286" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:R286" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R257"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="O2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -7058,7 +7301,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>122</v>
       </c>
@@ -7075,7 +7318,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -7101,7 +7344,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -7118,7 +7361,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -7126,7 +7369,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -7137,7 +7380,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -7145,7 +7388,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -7177,7 +7420,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -7203,7 +7446,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -7229,7 +7472,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -7252,7 +7495,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>183</v>
       </c>
@@ -7269,7 +7512,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -7289,7 +7532,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -7309,7 +7552,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -7317,7 +7560,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -7325,7 +7568,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -7357,7 +7600,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -7374,7 +7617,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -7394,7 +7637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -7411,7 +7654,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -7428,7 +7671,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -7445,7 +7688,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -7462,7 +7705,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -7479,7 +7722,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -7496,7 +7739,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -7513,7 +7756,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -7530,7 +7773,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -7553,7 +7796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -7570,7 +7813,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -7587,7 +7830,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -7604,7 +7847,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -7621,7 +7864,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -7638,7 +7881,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -7655,7 +7898,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -7672,7 +7915,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -7689,7 +7932,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -7709,7 +7952,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -7726,7 +7969,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -7743,7 +7986,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -7760,7 +8003,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -7777,7 +8020,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -7794,7 +8037,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -7811,7 +8054,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -7828,7 +8071,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -7845,7 +8088,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -7865,7 +8108,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -7882,7 +8125,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -7899,7 +8142,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -7916,7 +8159,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -7933,7 +8176,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -7953,7 +8196,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -7976,7 +8219,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -7993,7 +8236,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -8010,7 +8253,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -8030,7 +8273,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -8050,7 +8293,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -8070,7 +8313,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -8090,7 +8333,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -8110,7 +8353,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>99</v>
       </c>
@@ -8130,7 +8373,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -8150,7 +8393,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="D65" t="s">
         <v>202</v>
       </c>
@@ -8182,12 +8425,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="E66" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -8207,7 +8450,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="B69" t="s">
         <v>7</v>
       </c>
@@ -8215,7 +8458,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="B70" t="s">
         <v>35</v>
       </c>
@@ -8235,7 +8478,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="B71" t="s">
         <v>10</v>
       </c>
@@ -8243,7 +8486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="B72" t="s">
         <v>15</v>
       </c>
@@ -8263,7 +8506,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="B73" t="s">
         <v>18</v>
       </c>
@@ -8271,7 +8514,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="B74" t="s">
         <v>26</v>
       </c>
@@ -8285,57 +8528,57 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="G78" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" t="s">
         <v>241</v>
       </c>
@@ -8349,7 +8592,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" t="s">
         <v>245</v>
       </c>
@@ -8363,27 +8606,27 @@
         <v>244</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" t="s">
         <v>293</v>
       </c>
@@ -8394,7 +8637,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" t="s">
         <v>296</v>
       </c>
@@ -8414,7 +8657,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" t="s">
         <v>298</v>
       </c>
@@ -8434,7 +8677,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" t="s">
         <v>300</v>
       </c>
@@ -8454,12 +8697,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="A140" t="s">
         <v>303</v>
       </c>
@@ -8470,37 +8713,37 @@
         <v>295</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="A141" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="A143" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="A144" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="A146" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" t="s">
         <v>310</v>
       </c>
@@ -8514,7 +8757,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" t="s">
         <v>312</v>
       </c>
@@ -8525,7 +8768,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150" t="s">
         <v>313</v>
       </c>
@@ -8536,22 +8779,22 @@
         <v>315</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="A152" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" t="s">
         <v>319</v>
       </c>
@@ -8559,12 +8802,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156">
       <c r="B156" t="s">
         <v>322</v>
       </c>
@@ -8572,37 +8815,37 @@
         <v>323</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="A158" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="A159" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="A160" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="A161" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162">
       <c r="A162" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" t="s">
         <v>322</v>
       </c>
@@ -8610,7 +8853,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164">
       <c r="A164" t="s">
         <v>331</v>
       </c>
@@ -8618,12 +8861,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165">
       <c r="A165" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="A166" t="s">
         <v>334</v>
       </c>
@@ -8634,12 +8877,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167">
       <c r="A167" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168">
       <c r="A168" t="s">
         <v>336</v>
       </c>
@@ -8650,12 +8893,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169">
       <c r="A169" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -8669,7 +8912,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="A173" t="s">
         <v>342</v>
       </c>
@@ -8677,83 +8920,79 @@
         <v>343</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="A174" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="A175" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="A178" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="A179" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="A181" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183">
       <c r="A183" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186">
       <c r="A186" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="A195" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198">
       <c r="A198" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257">
       <c r="A257" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:R257" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:R252"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="O2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -8779,7 +9018,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>122</v>
       </c>
@@ -8796,7 +9035,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -8822,7 +9061,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -8839,7 +9078,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -8847,7 +9086,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -8858,7 +9097,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -8866,7 +9105,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -8898,7 +9137,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -8924,7 +9163,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -8950,7 +9189,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -8973,7 +9212,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>183</v>
       </c>
@@ -8990,7 +9229,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -9010,7 +9249,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -9030,7 +9269,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -9038,7 +9277,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -9046,7 +9285,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -9078,7 +9317,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -9095,7 +9334,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -9115,7 +9354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -9132,7 +9371,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -9149,7 +9388,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -9166,7 +9405,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -9183,7 +9422,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -9200,7 +9439,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -9217,7 +9456,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -9234,7 +9473,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -9251,7 +9490,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -9274,7 +9513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -9291,7 +9530,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -9308,7 +9547,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -9325,7 +9564,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -9342,7 +9581,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -9359,7 +9598,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -9376,7 +9615,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -9393,7 +9632,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -9410,7 +9649,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -9430,7 +9669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -9447,7 +9686,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -9464,7 +9703,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -9481,7 +9720,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -9498,7 +9737,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -9515,7 +9754,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -9532,7 +9771,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -9549,7 +9788,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -9566,7 +9805,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -9586,7 +9825,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -9603,7 +9842,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -9620,7 +9859,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -9637,7 +9876,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -9654,7 +9893,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -9674,7 +9913,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -9697,7 +9936,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -9714,7 +9953,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -9731,7 +9970,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -9751,7 +9990,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -9771,7 +10010,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -9791,7 +10030,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -9811,7 +10050,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -9831,7 +10070,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>99</v>
       </c>
@@ -9851,7 +10090,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -9871,7 +10110,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="D65" t="s">
         <v>202</v>
       </c>
@@ -9903,12 +10142,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="E66" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -9928,7 +10167,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="B69" t="s">
         <v>7</v>
       </c>
@@ -9936,7 +10175,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="B70" t="s">
         <v>35</v>
       </c>
@@ -9956,7 +10195,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="B71" t="s">
         <v>10</v>
       </c>
@@ -9964,7 +10203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="B72" t="s">
         <v>15</v>
       </c>
@@ -9984,7 +10223,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="B73" t="s">
         <v>18</v>
       </c>
@@ -9992,7 +10231,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="B74" t="s">
         <v>26</v>
       </c>
@@ -10006,57 +10245,57 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="G78" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" t="s">
         <v>241</v>
       </c>
@@ -10070,7 +10309,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" t="s">
         <v>245</v>
       </c>
@@ -10084,57 +10323,57 @@
         <v>244</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="A143" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" t="s">
         <v>357</v>
       </c>
@@ -10142,22 +10381,22 @@
         <v>358</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="A158" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="A160" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164">
       <c r="A164" t="s">
         <v>362</v>
       </c>
@@ -10165,12 +10404,12 @@
         <v>363</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="A166" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168">
       <c r="A168" t="s">
         <v>365</v>
       </c>
@@ -10181,83 +10420,79 @@
         <v>367</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170">
       <c r="A170" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="A174" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="A175" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177">
       <c r="A177" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="A179" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="A182" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191">
       <c r="A191" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194">
       <c r="A194" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248">
       <c r="A248" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252">
       <c r="A252" t="s">
         <v>348</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:R252" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:R259"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="O2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -10283,7 +10518,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>122</v>
       </c>
@@ -10300,7 +10535,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -10326,7 +10561,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -10343,7 +10578,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -10351,7 +10586,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -10362,7 +10597,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -10370,7 +10605,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -10402,7 +10637,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -10428,7 +10663,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -10454,7 +10689,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -10477,7 +10712,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>183</v>
       </c>
@@ -10494,7 +10729,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -10514,7 +10749,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -10534,7 +10769,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -10542,7 +10777,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -10550,7 +10785,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -10582,7 +10817,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -10599,7 +10834,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -10619,7 +10854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -10636,7 +10871,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -10653,7 +10888,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -10670,7 +10905,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -10687,7 +10922,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -10704,7 +10939,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -10721,7 +10956,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -10738,7 +10973,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -10755,7 +10990,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -10778,7 +11013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -10795,7 +11030,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -10812,7 +11047,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -10829,7 +11064,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -10846,7 +11081,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -10863,7 +11098,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -10880,7 +11115,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -10897,7 +11132,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -10914,7 +11149,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -10934,7 +11169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -10951,7 +11186,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -10968,7 +11203,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -10985,7 +11220,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -11002,7 +11237,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -11019,7 +11254,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -11036,7 +11271,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -11053,7 +11288,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -11070,7 +11305,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -11090,7 +11325,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -11107,7 +11342,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -11124,7 +11359,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -11141,7 +11376,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -11158,7 +11393,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -11178,7 +11413,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -11201,7 +11436,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -11218,7 +11453,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -11235,7 +11470,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -11255,7 +11490,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -11275,7 +11510,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -11295,7 +11530,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -11315,7 +11550,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -11335,7 +11570,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>99</v>
       </c>
@@ -11355,7 +11590,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -11375,7 +11610,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="D65" t="s">
         <v>202</v>
       </c>
@@ -11407,12 +11642,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="E66" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -11432,7 +11667,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="B69" t="s">
         <v>7</v>
       </c>
@@ -11440,7 +11675,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="B70" t="s">
         <v>35</v>
       </c>
@@ -11460,7 +11695,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="B71" t="s">
         <v>10</v>
       </c>
@@ -11468,7 +11703,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="B72" t="s">
         <v>15</v>
       </c>
@@ -11488,7 +11723,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="B73" t="s">
         <v>18</v>
       </c>
@@ -11496,7 +11731,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="B74" t="s">
         <v>26</v>
       </c>
@@ -11510,57 +11745,57 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="G78" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" t="s">
         <v>241</v>
       </c>
@@ -11574,7 +11809,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" t="s">
         <v>245</v>
       </c>
@@ -11588,22 +11823,22 @@
         <v>244</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" t="s">
         <v>372</v>
       </c>
@@ -11614,163 +11849,159 @@
         <v>374</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="A140" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="A141" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="A143" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="A144" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="A146" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="A152" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156">
       <c r="A156" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="A178" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="A179" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="A181" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183">
       <c r="A183" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186">
       <c r="A186" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="A195" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198">
       <c r="A198" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259">
       <c r="A259" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:R259" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I233"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>394</v>
       </c>
@@ -11778,12 +12009,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>397</v>
       </c>
@@ -11791,57 +12022,57 @@
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>409</v>
       </c>
@@ -11849,22 +12080,22 @@
         <v>410</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" t="s">
         <v>394</v>
       </c>
@@ -11872,12 +12103,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
         <v>397</v>
       </c>
@@ -11885,57 +12116,57 @@
         <v>398</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" t="s">
         <v>409</v>
       </c>
@@ -11943,22 +12174,22 @@
         <v>410</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="A158" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="A159" t="s">
         <v>394</v>
       </c>
@@ -11966,12 +12197,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="A161" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" t="s">
         <v>397</v>
       </c>
@@ -11979,57 +12210,57 @@
         <v>398</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165">
       <c r="A165" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167">
       <c r="A167" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169">
       <c r="A169" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="A173" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177">
       <c r="A177" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180">
       <c r="A180" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="A182" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184">
       <c r="A184" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186">
       <c r="A186" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188">
       <c r="A188" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190">
       <c r="A190" t="s">
         <v>409</v>
       </c>
@@ -12037,38 +12268,34 @@
         <v>410</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233">
       <c r="A233" t="s">
         <v>411</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:I233" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>394</v>
       </c>
@@ -12076,12 +12303,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>413</v>
       </c>
@@ -12095,7 +12322,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>416</v>
       </c>
@@ -12109,17 +12336,17 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>422</v>
       </c>
@@ -12127,65 +12354,62 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" t="s">
         <v>433</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:L76" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
 </worksheet>
 </file>